--- a/artfynd/A 31652-2023.xlsx
+++ b/artfynd/A 31652-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY5"/>
+  <dimension ref="A1:AY6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1131,6 +1131,122 @@
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>112503698</v>
+      </c>
+      <c r="B6" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Gammal skog, Ög</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>564754</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6511406</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Norrköping</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Simonstorp</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Finns under en vält gran. Finns massvis i området runt omkring, hundratals.</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Frida Blixt</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Frida Blixt</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
